--- a/words_CZ/2.xlsx
+++ b/words_CZ/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F262E714-D5FD-47A1-A6E3-1A4D6990FD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283551C8-C9F1-4B6B-921E-CA0495F64571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="2580" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -389,10 +387,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
